--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_14_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_14_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53411.71301172596</v>
+        <v>10628930.88933345</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53411.71301172596</v>
+        <v>10628930.88933345</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3484.878520759703</v>
+        <v>504456.4268399836</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3484.878520759703</v>
+        <v>504456.4268399836</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342476883.704816</v>
+        <v>54923535.42944452</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11157.697437217</v>
+        <v>1229327.247674381</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21493.07033835833</v>
+        <v>2330678.265781834</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31828.44323949965</v>
+        <v>3432029.283889289</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42644.6029591325</v>
+        <v>4553951.090341927</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53360.42651714918</v>
+        <v>5655906.000632947</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64076.25007516585</v>
+        <v>6757860.910923967</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74792.07363318252</v>
+        <v>7859815.821214983</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85507.89719119918</v>
+        <v>8961770.731505999</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96223.72074921586</v>
+        <v>10063725.64179702</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>106939.5443072325</v>
+        <v>11165680.55208803</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>117655.3678652492</v>
+        <v>12267635.46237906</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>127890.4046047743</v>
+        <v>13349019.5843249</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>138225.7775059156</v>
+        <v>14450370.60243236</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>149132.5782609882</v>
+        <v>15465555.36848531</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>160039.3790160608</v>
+        <v>16480740.13453825</v>
       </c>
     </row>
   </sheetData>
